--- a/src/test/resources/datatest/CRM.xlsx
+++ b/src/test/resources/datatest/CRM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANHTESTER\SeleniumJava\CucumberTestNG022023\src\test\resources\datatest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestJAVA\JAVA\CucumberCRM\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F98528C-6580-4944-998C-79A615DBC97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9CC290-E228-4D09-97F1-91C03159F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>EMAIL</t>
   </si>
@@ -35,13 +35,43 @@
   </si>
   <si>
     <t>admin@example.com</t>
+  </si>
+  <si>
+    <t>Thanh_13062023</t>
+  </si>
+  <si>
+    <t>nameCompany</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>languageDefault</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +86,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,9 +115,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72AD5D9-45AB-4B7A-B8DD-0D8E68C91E98}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -435,14 +474,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7D98F3-2EDE-4E23-83ED-4B5338E51797}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/datatest/CRM.xlsx
+++ b/src/test/resources/datatest/CRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestJAVA\JAVA\CucumberCRM\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9CC290-E228-4D09-97F1-91C03159F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84984455-38F1-4306-B23F-A94F1FB13BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>admin@example.com</t>
   </si>
   <si>
-    <t>Thanh_13062023</t>
-  </si>
-  <si>
     <t>nameCompany</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>groups</t>
+  </si>
+  <si>
+    <t>Thanh_19062023</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,36 +488,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/datatest/CRM.xlsx
+++ b/src/test/resources/datatest/CRM.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestJAVA\JAVA\CucumberCRM\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84984455-38F1-4306-B23F-A94F1FB13BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665CB726-B434-49EE-96F8-45A47FD3D213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Edit Customer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>EMAIL</t>
   </si>
@@ -43,9 +44,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>languageDefault</t>
   </si>
   <si>
@@ -65,6 +63,21 @@
   </si>
   <si>
     <t>Thanh_19062023</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>VNĐ</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Thanh_20062023</t>
   </si>
 </sst>
 </file>
@@ -476,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7D98F3-2EDE-4E23-83ED-4B5338E51797}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,37 +504,90 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F547CD2B-4D46-4BB5-B47F-FA56146D0784}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datatest/CRM.xlsx
+++ b/src/test/resources/datatest/CRM.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestJAVA\JAVA\CucumberCRM\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665CB726-B434-49EE-96F8-45A47FD3D213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE35C7-1779-482D-A088-B5492A187F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Customer" sheetId="2" r:id="rId2"/>
     <sheet name="Edit Customer" sheetId="3" r:id="rId3"/>
+    <sheet name="Project" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>EMAIL</t>
   </si>
@@ -78,6 +79,21 @@
   </si>
   <si>
     <t>Thanh_20062023</t>
+  </si>
+  <si>
+    <t>nameProject</t>
+  </si>
+  <si>
+    <t>nameCustomer</t>
+  </si>
+  <si>
+    <t>totalRate</t>
+  </si>
+  <si>
+    <t>estimatedHours</t>
+  </si>
+  <si>
+    <t>Thanh Project 01</t>
   </si>
 </sst>
 </file>
@@ -128,11 +144,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -451,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72AD5D9-45AB-4B7A-B8DD-0D8E68C91E98}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +509,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,36 +519,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -543,48 +562,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F547CD2B-4D46-4BB5-B47F-FA56146D0784}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640C74A6-6CB6-413B-93CD-388885CFE22A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/datatest/CRM.xlsx
+++ b/src/test/resources/datatest/CRM.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestJAVA\JAVA\CucumberCRM\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE35C7-1779-482D-A088-B5492A187F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDCA14-7CED-4E39-BDB7-752025F2C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Customer" sheetId="2" r:id="rId2"/>
     <sheet name="Edit Customer" sheetId="3" r:id="rId3"/>
     <sheet name="Project" sheetId="4" r:id="rId4"/>
+    <sheet name="Edit Project" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>EMAIL</t>
   </si>
@@ -94,6 +95,9 @@
   </si>
   <si>
     <t>Thanh Project 01</t>
+  </si>
+  <si>
+    <t>Thanh Project 02</t>
   </si>
 </sst>
 </file>
@@ -470,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72AD5D9-45AB-4B7A-B8DD-0D8E68C91E98}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +622,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,4 +665,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C629BB5F-C868-456D-86E0-5E4755E5F6EB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datatest/CRM.xlsx
+++ b/src/test/resources/datatest/CRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestJAVA\JAVA\CucumberCRM\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDCA14-7CED-4E39-BDB7-752025F2C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918D2DC-ACD6-4006-ADEB-961944AAD0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{087FA7D4-EF6F-413D-ABC6-FDC0D1BECD89}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>EMAIL</t>
   </si>
@@ -43,9 +43,6 @@
     <t>nameCompany</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>languageDefault</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>groups</t>
   </si>
   <si>
-    <t>Thanh_19062023</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Thanh_20062023</t>
-  </si>
-  <si>
     <t>nameProject</t>
   </si>
   <si>
@@ -98,6 +89,18 @@
   </si>
   <si>
     <t>Thanh Project 02</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Thanh_06092023</t>
+  </si>
+  <si>
+    <t>Thanh_07092023</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,33 +530,33 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +570,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,33 +586,33 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +625,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,24 +639,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>70</v>
@@ -672,7 +675,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,18 +688,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>50</v>
